--- a/Modulo 11 - Fórmulas avançadas/aula-financeiras.xlsx
+++ b/Modulo 11 - Fórmulas avançadas/aula-financeiras.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20404"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelio\Google Drive\Cursos online\Curso_Excel\10 Fórmulas avançadas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Desktop\Curso-Excel\Modulo 11 - Fórmulas avançadas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C218EF-871F-4570-BA6E-D1817F40461B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financeiras" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -117,11 +118,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -252,7 +253,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
@@ -275,13 +276,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -290,10 +291,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -305,28 +303,31 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -644,28 +645,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="2" customWidth="1"/>
-    <col min="3" max="4" width="14.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" style="2" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" style="2" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.7265625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="14.7265625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.7265625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="14.7265625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.7265625" style="2" customWidth="1"/>
+    <col min="9" max="10" width="14.7265625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="5.7265625" style="2" customWidth="1"/>
     <col min="12" max="14" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="2" hidden="1"/>
+    <col min="15" max="16384" width="9.1796875" style="2" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,7 +679,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -691,174 +692,224 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="7">
+        <v>90000</v>
+      </c>
       <c r="E6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7">
+        <v>3000</v>
+      </c>
       <c r="H6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="9">
+        <v>10000</v>
+      </c>
       <c r="E7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="19"/>
+      <c r="F7" s="18">
+        <v>43819</v>
+      </c>
       <c r="H7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="19"/>
-    </row>
-    <row r="8" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="18">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="9"/>
+      <c r="C8" s="9">
+        <f>C6-C7</f>
+        <v>80000</v>
+      </c>
       <c r="E8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="19"/>
+      <c r="F8" s="18">
+        <v>43728</v>
+      </c>
       <c r="H8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="19"/>
-    </row>
-    <row r="9" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="18">
+        <v>44094</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="14">
+        <v>36</v>
+      </c>
       <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="19">
+        <f>(F7-F8)/30</f>
+        <v>3.0333333333333332</v>
+      </c>
       <c r="H9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="20"/>
-    </row>
-    <row r="10" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="16"/>
+      <c r="C10" s="15">
+        <v>0.01</v>
+      </c>
       <c r="E10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="20">
+        <v>0.02</v>
+      </c>
       <c r="H10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="21"/>
-    </row>
-    <row r="11" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="20">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="24">
+        <f>PMT(C10,C9,-C8,0,0)</f>
+        <v>2657.1447850280956</v>
+      </c>
       <c r="E11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="23"/>
+      <c r="F11" s="22">
+        <f>F6-F12</f>
+        <v>174.89842641592077</v>
+      </c>
       <c r="H11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="22"/>
-    </row>
-    <row r="12" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="24" t="s">
+      <c r="I11" s="21">
+        <f>FV(I10,I9,0,-I6,0)</f>
+        <v>11268.250301319698</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="9">
+        <f>C11*C9</f>
+        <v>95657.212261011446</v>
+      </c>
       <c r="E12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="22"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="21">
+        <f>PV(F10,F9,0,-F6,0)</f>
+        <v>2825.1015735840792</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="14" t="s">
+      <c r="C13" s="12">
+        <f>C12-C8</f>
+        <v>15657.212261011446</v>
+      </c>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E16" s="17"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="17"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="17"/>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="17"/>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E20" s="17"/>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E21" s="17"/>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E22" s="17"/>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E23" s="17"/>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E24" s="17"/>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E25" s="17"/>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E26" s="17"/>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E27" s="17"/>
-    </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E28" s="17"/>
-    </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E29" s="17"/>
-    </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E30" s="17"/>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E27" s="16"/>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E28" s="16"/>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E30" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
